--- a/admin/assets/uploads/add_student.xlsx
+++ b/admin/assets/uploads/add_student.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>Applicant Number</t>
   </si>
@@ -67,18 +67,9 @@
     <t>Disability Type</t>
   </si>
   <si>
-    <t>Institution Code</t>
-  </si>
-  <si>
     <t>Application Type</t>
   </si>
   <si>
-    <t>Programme Applied Code</t>
-  </si>
-  <si>
-    <t>Programme Offered Code</t>
-  </si>
-  <si>
     <t>Admission Year</t>
   </si>
   <si>
@@ -94,16 +85,16 @@
     <t>Fee Payment Type</t>
   </si>
   <si>
-    <t>UPS/2022/0074</t>
-  </si>
-  <si>
-    <t>Hannah</t>
+    <t>KST/2022/0067</t>
+  </si>
+  <si>
+    <t>Gloria</t>
   </si>
   <si>
     <t>Johnson</t>
   </si>
   <si>
-    <t>Ashiokai</t>
+    <t>Ansah</t>
   </si>
   <si>
     <t>Female</t>
@@ -139,17 +130,6 @@
     <t>No</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>UPS/001/0004</t>
-    </r>
-  </si>
-  <si>
     <t>Undergraduate</t>
   </si>
   <si>
@@ -162,13 +142,13 @@
     <t>Full Fee-Paying</t>
   </si>
   <si>
-    <t>UG/2020/053</t>
-  </si>
-  <si>
-    <t>Moses</t>
-  </si>
-  <si>
-    <t>Yankson</t>
+    <t>KST/2020/053</t>
+  </si>
+  <si>
+    <t>Mustapha</t>
+  </si>
+  <si>
+    <t>Mummin</t>
   </si>
   <si>
     <t>Male</t>
@@ -183,9 +163,6 @@
     <t>Togolese</t>
   </si>
   <si>
-    <t>Togo</t>
-  </si>
-  <si>
     <t>Moslem</t>
   </si>
   <si>
@@ -205,9 +182,6 @@
   </si>
   <si>
     <t>Eye</t>
-  </si>
-  <si>
-    <t>UG0010</t>
   </si>
   <si>
     <t>regular</t>
@@ -227,7 +201,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,12 +352,6 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1157,10 +1125,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1182,18 +1150,15 @@
     <col min="15" max="15" width="19.5555555555556" style="1" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
     <col min="17" max="17" width="13.7777777777778" customWidth="1"/>
-    <col min="18" max="18" width="15.2222222222222" customWidth="1"/>
-    <col min="19" max="19" width="15.7777777777778" customWidth="1"/>
-    <col min="20" max="20" width="23.7777777777778" customWidth="1"/>
-    <col min="21" max="21" width="24.1111111111111" customWidth="1"/>
-    <col min="22" max="22" width="14.5555555555556" customWidth="1"/>
-    <col min="23" max="23" width="16.1111111111111" customWidth="1"/>
-    <col min="24" max="24" width="17" customWidth="1"/>
-    <col min="25" max="25" width="17.1111111111111" customWidth="1"/>
-    <col min="26" max="26" width="17.2222222222222" customWidth="1"/>
+    <col min="18" max="18" width="15.7777777777778" customWidth="1"/>
+    <col min="19" max="19" width="14.5555555555556" customWidth="1"/>
+    <col min="20" max="20" width="16.1111111111111" customWidth="1"/>
+    <col min="21" max="21" width="17" customWidth="1"/>
+    <col min="22" max="22" width="17.1111111111111" customWidth="1"/>
+    <col min="23" max="23" width="17.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1263,168 +1228,141 @@
       <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E2" s="2">
         <v>23833</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="P2" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="R2" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="S2">
+        <v>2022</v>
+      </c>
+      <c r="T2" t="s">
         <v>39</v>
       </c>
-      <c r="P2" t="s">
+      <c r="U2" t="s">
         <v>40</v>
       </c>
-      <c r="R2" t="s">
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
         <v>41</v>
       </c>
-      <c r="S2" t="s">
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="T2">
-        <v>16</v>
-      </c>
-      <c r="U2">
-        <v>16</v>
-      </c>
-      <c r="V2">
-        <v>2022</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="B3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="X2" t="s">
+      <c r="C3" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="E3" s="2">
         <v>28551</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="P3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="Q3" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="R3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3">
+        <v>2020</v>
+      </c>
+      <c r="T3" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="U3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3" t="s">
         <v>57</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>60</v>
-      </c>
-      <c r="R3" t="s">
-        <v>61</v>
-      </c>
-      <c r="S3" t="s">
-        <v>42</v>
-      </c>
-      <c r="T3">
-        <v>15</v>
-      </c>
-      <c r="U3">
-        <v>15</v>
-      </c>
-      <c r="V3">
-        <v>2020</v>
-      </c>
-      <c r="W3" t="s">
-        <v>62</v>
-      </c>
-      <c r="X3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1441,16 +1379,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P3 P4:P1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S3 S4:S1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R3 R4:R1048576">
       <formula1>"Undergraduate,Postgraduate,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W3 W4:W1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T3 T4:T1048576">
       <formula1>"distance,evening,regular,weekend"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X3 X4:X1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U3 U4:U1048576">
       <formula1>"Qualified,Offered,Enrolled,Graduated"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1:Z3 Z4:Z1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W3 W4:W1048576">
       <formula1>"Full Fee-Paying, Government Subsidized, Scholarship"</formula1>
     </dataValidation>
   </dataValidations>

--- a/admin/assets/uploads/add_student.xlsx
+++ b/admin/assets/uploads/add_student.xlsx
@@ -7,14 +7,14 @@
     <workbookView windowWidth="23040" windowHeight="9024"/>
   </bookViews>
   <sheets>
-    <sheet name="General Details" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>Applicant Number</t>
   </si>
@@ -85,6 +85,12 @@
     <t>Fee Payment Type</t>
   </si>
   <si>
+    <t>Institution Code</t>
+  </si>
+  <si>
+    <t>Programme Code</t>
+  </si>
+  <si>
     <t>KST/2022/0067</t>
   </si>
   <si>
@@ -142,6 +148,9 @@
     <t>Full Fee-Paying</t>
   </si>
   <si>
+    <t>KST/001</t>
+  </si>
+  <si>
     <t>KST/2020/053</t>
   </si>
   <si>
@@ -181,13 +190,16 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Eye</t>
+    <t>VISUAL IMPAIRMENT</t>
   </si>
   <si>
     <t>regular</t>
   </si>
   <si>
     <t>Government Subsidized</t>
+  </si>
+  <si>
+    <t>UMAT001</t>
   </si>
 </sst>
 </file>
@@ -201,10 +213,26 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -656,7 +684,9 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -672,140 +702,147 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -858,7 +895,221 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -868,7 +1119,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -884,7 +1135,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -896,7 +1147,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -913,9 +1164,9 @@
         <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -948,9 +1199,9 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1125,274 +1376,275 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5555555555556" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.4537037037037" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1759259259259" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7222222222222" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.8148148148148" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5462962962963" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.8888888888889" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7777777777778" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.0925925925926" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.9074074074074" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7777777777778" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5555555555556" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5555555555556" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15" customWidth="1"/>
-    <col min="17" max="17" width="13.7777777777778" customWidth="1"/>
-    <col min="18" max="18" width="15.7777777777778" customWidth="1"/>
-    <col min="19" max="19" width="14.5555555555556" customWidth="1"/>
-    <col min="20" max="20" width="16.1111111111111" customWidth="1"/>
-    <col min="21" max="21" width="17" customWidth="1"/>
-    <col min="22" max="22" width="17.1111111111111" customWidth="1"/>
-    <col min="23" max="23" width="17.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="12.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="X1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:25">
+      <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2">
+      <c r="C2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="6">
         <v>23833</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="J2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="K2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="L2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="M2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="P2" t="s">
+      <c r="N2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="R2" t="s">
+      <c r="O2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="S2">
+      <c r="P2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="2">
         <v>2022</v>
       </c>
-      <c r="T2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="T2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:25">
+      <c r="A3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6">
+        <v>28551</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="V2">
+      <c r="S3" s="2">
+        <v>2020</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" s="2">
         <v>1</v>
       </c>
-      <c r="W2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="2">
-        <v>28551</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3">
-        <v>2020</v>
-      </c>
-      <c r="T3" t="s">
-        <v>56</v>
-      </c>
-      <c r="U3" t="s">
-        <v>40</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3" t="s">
-        <v>57</v>
+      <c r="W3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F3 F4:F1048576">
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F3">
       <formula1>"Male,Female"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G3 G4:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G3">
       <formula1>"Ghana Card, National ID,Passport,Social Security,Voter ID"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M3 M4:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M3">
       <formula1>"Ahafo,Ashanti,Bono East,Brong Ahafo,Central,Eastern,Greater Accra,North East,Northern,Oti,Savannah,Upper East,Upper West,Western,Western North,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P3 P4:P1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P3">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R3 R4:R1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q3">
+      <formula1>"HEARING IMPAIRMENT,MOBILITY (PHYSICAL)IMPAIRMENT,SPEECH OR LANGUAGE IMPAIRMENT,VISUAL IMPAIRMENT,OTHER IMPAIRMENT"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R3">
       <formula1>"Undergraduate,Postgraduate,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T3 T4:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T3">
       <formula1>"distance,evening,regular,weekend"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U3 U4:U1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U3">
       <formula1>"Qualified,Offered,Enrolled,Graduated"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W3 W4:W1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W3">
       <formula1>"Full Fee-Paying, Government Subsidized, Scholarship"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>